--- a/kerjaan/untag/catatan.xlsx
+++ b/kerjaan/untag/catatan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\untag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E34067-FE9D-427D-B83C-8DF4C30D2965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8151B4C-FF84-4BEE-B30B-947CBFB7E545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39030E98-4251-4D69-AD84-027202D63649}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Dekan</t>
   </si>
@@ -39,34 +39,37 @@
     <t>Ketua Prodi</t>
   </si>
   <si>
-    <t>Dekan Sukindar S.H.,M.H</t>
-  </si>
-  <si>
     <t>Nik. 62.17.1.0294</t>
   </si>
   <si>
-    <t>Wakil Dekan I Dr. Isnawati, S.H.,M.H</t>
-  </si>
-  <si>
     <t>Nik. 62.17.1.0128</t>
   </si>
   <si>
-    <t>Wakil Dekan II Ony Rosifani, S.H.,MHum</t>
-  </si>
-  <si>
     <t>Nik. 62.17.1.0016</t>
   </si>
   <si>
-    <t>Plt. Wakil Dekan III Benhard Kurniawan Pasaribu. S.H.,M.H</t>
-  </si>
-  <si>
-    <t>Nik. 62.17.10293</t>
-  </si>
-  <si>
-    <t>Sukindar S.H.,M.H</t>
-  </si>
-  <si>
-    <t>PLT Wakil Dekan III</t>
+    <t>Plt. Wakil Dekan III</t>
+  </si>
+  <si>
+    <t>Nik. 62.17.1.0230</t>
+  </si>
+  <si>
+    <t>Nik. 62.17.1.0293</t>
+  </si>
+  <si>
+    <t>Sukindar, S.H., M.H.</t>
+  </si>
+  <si>
+    <t>Dr. Isnawati, S.H., M.H.</t>
+  </si>
+  <si>
+    <t>Ony Rosifani, S.H., M.Hum</t>
+  </si>
+  <si>
+    <t>Benhard Kurniawan Pasaribu, S.H., M.H.</t>
+  </si>
+  <si>
+    <t>Farahwati, S.H., M.Si., M.H.</t>
   </si>
 </sst>
 </file>
@@ -419,84 +422,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34994540-6904-4DB4-9D9D-57D678BBBEAB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/untag/catatan.xlsx
+++ b/kerjaan/untag/catatan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\untag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8151B4C-FF84-4BEE-B30B-947CBFB7E545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE3DC5-990F-4420-A116-DCCEA3B78EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39030E98-4251-4D69-AD84-027202D63649}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
